--- a/result/history2022-05-18output.xlsx
+++ b/result/history2022-05-18output.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="lkhsfds" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="dslkfjas sadf dsa" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="lljlkdsjf dlafj " sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sao dfsfsafsa" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -708,4 +709,92 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Well槽</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Well Pass/Fail</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>上蓋</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>上蓋 Pass/Fail</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>檢測結果</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>eGGi IP</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Step</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>sao dfsfsafsa</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>61.858</v>
+      </c>
+      <c r="D2" t="n">
+        <v>61.858</v>
+      </c>
+      <c r="E2" t="n">
+        <v>98.64</v>
+      </c>
+      <c r="F2" t="n">
+        <v>61.858</v>
+      </c>
+      <c r="G2" t="n">
+        <v>61.858</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>C:/GitLab/temperature_check/data/factory0516.csv</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/result/history2022-05-18output.xlsx
+++ b/result/history2022-05-18output.xlsx
@@ -10,6 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="dslkfjas sadf dsa" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="lljlkdsjf dlafj " sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sao dfsfsafsa" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="qwe" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="qwesa" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -797,4 +799,188 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Well槽</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Well Pass/Fail</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>上蓋</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>上蓋 Pass/Fail</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>檢測結果</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>eGGi IP</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Step</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>qwe</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>61.858</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>&lt;PyQt5.QtWidgets.QLineEdit object at 0x000001E0FB6FF820&gt;</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>98.64</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>&lt;PyQt5.QtWidgets.QLineEdit object at 0x000001E0FB6FF4C0&gt;</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>61.858</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>C:/GitLab/temperature_check/data/factory0516.csv</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Well槽</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Well Pass/Fail</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>上蓋</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>上蓋 Pass/Fail</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>檢測結果</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>eGGi IP</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Step</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>qwesa</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>61.858</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>['Pass']</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>98.64</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>['Pass']</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>61.858</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>C:/GitLab/temperature_check/data/factory0516.csv</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>